--- a/서울시 문화행사 공공서비스예약 정보(한국어+영어+중국어).xlsx
+++ b/서울시 문화행사 공공서비스예약 정보(한국어+영어+중국어).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\번역_데이터 전처리\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\commo\OneDrive\바탕 화면\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6831,20 +6831,7 @@
     <t>玉金公园</t>
   </si>
   <si>
-    <r>
-      <t>X</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>좌표</t>
-    </r>
+    <t>X좌표</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -6872,7 +6859,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -6883,12 +6870,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -6903,13 +6892,6 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6940,7 +6922,7 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7162,7 +7144,7 @@
   <dimension ref="A1:U561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7189,7 +7171,7 @@
       <c r="G1" s="6" t="s">
         <v>2270</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>2271</v>
       </c>
     </row>
